--- a/generated_docs/WR_89856203_WeekEnding_081725.xlsx
+++ b/generated_docs/WR_89856203_WeekEnding_081725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I51"/>
+  <dimension ref="A2:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:49 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4633.38</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -776,7 +776,7 @@
       </c>
       <c r="B17" s="12" t="inlineStr">
         <is>
-          <t>DEG-6-DP</t>
+          <t>PLA-TAG</t>
         </is>
       </c>
       <c r="C17" s="12" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="D17" s="12" t="inlineStr">
         <is>
-          <t>DEG,#6,Duplex</t>
+          <t>PLA,Tag Pole</t>
         </is>
       </c>
       <c r="E17" s="12" t="inlineStr">
@@ -795,11 +795,11 @@
         </is>
       </c>
       <c r="F17" s="13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -810,17 +810,17 @@
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>DEG-4-DP</t>
+          <t>DEG-6-DP</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D18" s="9" t="inlineStr">
         <is>
-          <t>DEG,#4,DuPlex</t>
+          <t>DEG,#6,Duplex</t>
         </is>
       </c>
       <c r="E18" s="9" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -844,17 +844,17 @@
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>CNC-SNB-2</t>
+          <t>DEG-4-DP</t>
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
+          <t>DEG,#4,DuPlex</t>
         </is>
       </c>
       <c r="E19" s="12" t="inlineStr">
@@ -863,11 +863,11 @@
         </is>
       </c>
       <c r="F19" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>40.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -883,7 +883,7 @@
       </c>
       <c r="C20" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D20" s="9" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>7.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -912,17 +912,17 @@
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>SLT-70-SR</t>
+          <t>CNC-SNB-2</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>70W 120V Sodium Roadway Refractor</t>
+          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -931,11 +931,11 @@
         </is>
       </c>
       <c r="F21" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>128.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -946,7 +946,7 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>SLB-W-10-S-1-S</t>
+          <t>SLT-70-SR</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>SLB,Wood,10ft,Steel,1Pos,Street</t>
+          <t>70W 120V Sodium Roadway Refractor</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -969,28 +969,28 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>118.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>SLB-W-10-S-1-S</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>SLB,Wood,10ft,Steel,1Pos,Street</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -1003,28 +1003,28 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>61.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1048,17 +1048,17 @@
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>DEG-20-SNA</t>
+          <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>DEG,2/0,Secondary Neutral Al</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1082,17 +1082,17 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>DEG-20-SNA</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>DEG,2/0,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1116,17 +1116,17 @@
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>195.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>CNC-NTI-2</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>CNC,splice Non-Tension Insul,#6-#2</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1169,32 +1169,32 @@
         </is>
       </c>
       <c r="F28" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>60.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>SLT-70-SR</t>
+          <t>CNC-NTI-2</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>70W 120V Sodium Roadway Refractor</t>
+          <t>CNC,splice Non-Tension Insul,#6-#2</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1203,11 +1203,11 @@
         </is>
       </c>
       <c r="F29" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>128.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>ALT-150-HRSGL</t>
+          <t>SLT-70-SR</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>150W 120V MH Roadway Slipfit Gray, Pulse</t>
+          <t>70W 120V Sodium Roadway Refractor</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>128.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>ALB-W-30-A-1-A</t>
+          <t>ALT-150-HRSGL</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>ALB,Wood,30in,Alum,1P,Area</t>
+          <t>150W 120V MH Roadway Slipfit Gray, Pulse</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>118.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>SLB-W-12-S-1-S</t>
+          <t>ALB-W-30-A-1-A</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>SLB,Wood,12ft,Steel,1Pos,Street</t>
+          <t>ALB,Wood,30in,Alum,1P,Area</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>118.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1320,17 +1320,17 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>CNC-SNB-2</t>
+          <t>SLB-W-12-S-1-S</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
+          <t>SLB,Wood,12ft,Steel,1Pos,Street</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1339,11 +1339,11 @@
         </is>
       </c>
       <c r="F33" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>81.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="C34" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D34" s="9" t="inlineStr">
@@ -1377,28 +1377,28 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>14.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>SVC-10-QD-ACS-CM</t>
+          <t>CNC-SNB-2</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>SVC,1/0,Quad,ACSR,Comm</t>
+          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1407,11 +1407,11 @@
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>195.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1422,17 +1422,17 @@
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>DEG-10-SNA</t>
+          <t>SVC-10-QD-ACS-CM</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>DEG,1/0,Secondary Neutral Al</t>
+          <t>SVC,1/0,Quad,ACSR,Comm</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C37" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D37" s="12" t="inlineStr">
@@ -1479,26 +1479,28 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="9" t="n">
-        <v>13</v>
+      <c r="A38" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>SLT-70-SR</t>
+          <t>DEG-10-SNA</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>70W 120V Sodium Roadway Refractor</t>
+          <t>DEG,1/0,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1511,7 +1513,7 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>128.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1520,7 +1522,7 @@
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>SLB-S-8-S-1-S-SC-BK</t>
+          <t>SLT-70-SR</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
@@ -1530,7 +1532,7 @@
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>SLB,Steel,8',Stl,1Pos,Str,SmCel,Black</t>
+          <t>70W 120V Sodium Roadway Refractor</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1543,28 +1545,26 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>118.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="9" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
+      <c r="A40" s="9" t="n">
+        <v>13</v>
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>CNC-SNB-2</t>
+          <t>SLB-S-8-S-1-S-SC-BK</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
+          <t>SLB,Steel,8',Stl,1Pos,Str,SmCel,Black</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1573,11 +1573,11 @@
         </is>
       </c>
       <c r="F40" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>40.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="C41" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D41" s="12" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>7.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1622,17 +1622,17 @@
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>CNC-STA-10</t>
+          <t>CNC-SNB-2</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>CNC,Sleeve Tension Automatic,#336-#1033</t>
+          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1641,32 +1641,32 @@
         </is>
       </c>
       <c r="F42" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>34.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>CNC-STA-10</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>CNC,Sleeve Tension Automatic,#336-#1033</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>195.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1690,17 +1690,17 @@
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>DEG-2-PNA</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>DEG,#2,Primary Neutral Al</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>DEG-2-PNA</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>DEG,#2,Primary Neutral Al</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="C46" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D46" s="9" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1792,17 +1792,17 @@
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="C48" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D48" s="9" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1860,17 +1860,17 @@
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>CNC-SNB-2</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
@@ -1879,11 +1879,11 @@
         </is>
       </c>
       <c r="F49" s="13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>121.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="C50" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D50" s="9" t="inlineStr">
@@ -1917,17 +1917,51 @@
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>22.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="15" t="inlineStr">
+      <c r="A51" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B51" s="12" t="inlineStr">
+        <is>
+          <t>CNC-SNB-2</t>
+        </is>
+      </c>
+      <c r="C51" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D51" s="12" t="inlineStr">
+        <is>
+          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
+        </is>
+      </c>
+      <c r="E51" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F51" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G51" s="13" t="inlineStr"/>
+      <c r="H51" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H51" s="16" t="n">
-        <v>4633.380000000001</v>
+      <c r="H52" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1940,9 +1974,9 @@
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A52:G52"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A51:G51"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89856203_WeekEnding_081725.xlsx
+++ b/generated_docs/WR_89856203_WeekEnding_081725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I52"/>
+  <dimension ref="A2:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:49 PM</t>
+          <t>Report Generated On: 08/26/2025 10:02 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>4633.38</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P146</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="17">
@@ -776,7 +772,7 @@
       </c>
       <c r="B17" s="12" t="inlineStr">
         <is>
-          <t>PLA-TAG</t>
+          <t>DEG-6-DP</t>
         </is>
       </c>
       <c r="C17" s="12" t="inlineStr">
@@ -786,7 +782,7 @@
       </c>
       <c r="D17" s="12" t="inlineStr">
         <is>
-          <t>PLA,Tag Pole</t>
+          <t>DEG,#6,Duplex</t>
         </is>
       </c>
       <c r="E17" s="12" t="inlineStr">
@@ -795,11 +791,11 @@
         </is>
       </c>
       <c r="F17" s="13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="18">
@@ -810,17 +806,17 @@
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>DEG-6-DP</t>
+          <t>DEG-4-DP</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D18" s="9" t="inlineStr">
         <is>
-          <t>DEG,#6,Duplex</t>
+          <t>DEG,#4,DuPlex</t>
         </is>
       </c>
       <c r="E18" s="9" t="inlineStr">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -844,17 +840,17 @@
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>DEG-4-DP</t>
+          <t>CNC-SNB-2</t>
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>DEG,#4,DuPlex</t>
+          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
         </is>
       </c>
       <c r="E19" s="12" t="inlineStr">
@@ -863,11 +859,11 @@
         </is>
       </c>
       <c r="F19" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>40.58</v>
       </c>
     </row>
     <row r="20">
@@ -883,7 +879,7 @@
       </c>
       <c r="C20" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D20" s="9" t="inlineStr">
@@ -901,7 +897,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="21">
@@ -912,17 +908,17 @@
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>CNC-SNB-2</t>
+          <t>SLT-70-SR</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
+          <t>70W 120V Sodium Roadway Refractor</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -931,11 +927,11 @@
         </is>
       </c>
       <c r="F21" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>128.82</v>
       </c>
     </row>
     <row r="22">
@@ -946,7 +942,7 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>SLT-70-SR</t>
+          <t>SLB-W-10-S-1-S</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,7 +952,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>70W 120V Sodium Roadway Refractor</t>
+          <t>SLB,Wood,10ft,Steel,1Pos,Street</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -969,28 +965,28 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>118.38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>SLB-W-10-S-1-S</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>SLB,Wood,10ft,Steel,1Pos,Street</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -1003,28 +999,28 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1037,7 +1033,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>61.51</v>
       </c>
     </row>
     <row r="25">
@@ -1048,17 +1044,17 @@
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP</t>
+          <t>DEG-20-SNA</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+          <t>DEG,2/0,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1071,7 +1067,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="26">
@@ -1082,17 +1078,17 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>DEG-20-SNA</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>DEG,2/0,Secondary Neutral Al</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1105,7 +1101,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -1116,17 +1112,17 @@
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1139,7 +1135,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>195.83</v>
       </c>
     </row>
     <row r="28">
@@ -1150,17 +1146,17 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>CNC-NTI-2</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>CNC,splice Non-Tension Insul,#6-#2</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1169,32 +1165,32 @@
         </is>
       </c>
       <c r="F28" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>60.87</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>CNC-NTI-2</t>
+          <t>SLT-70-SR</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>CNC,splice Non-Tension Insul,#6-#2</t>
+          <t>70W 120V Sodium Roadway Refractor</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1203,11 +1199,11 @@
         </is>
       </c>
       <c r="F29" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>128.82</v>
       </c>
     </row>
     <row r="30">
@@ -1218,7 +1214,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>SLT-70-SR</t>
+          <t>ALT-150-HRSGL</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,7 +1224,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>70W 120V Sodium Roadway Refractor</t>
+          <t>150W 120V MH Roadway Slipfit Gray, Pulse</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1241,7 +1237,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>128.82</v>
       </c>
     </row>
     <row r="31">
@@ -1252,7 +1248,7 @@
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>ALT-150-HRSGL</t>
+          <t>ALB-W-30-A-1-A</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1262,7 +1258,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>150W 120V MH Roadway Slipfit Gray, Pulse</t>
+          <t>ALB,Wood,30in,Alum,1P,Area</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1275,7 +1271,7 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>118.38</v>
       </c>
     </row>
     <row r="32">
@@ -1286,7 +1282,7 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>ALB-W-30-A-1-A</t>
+          <t>SLB-W-12-S-1-S</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1296,7 +1292,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>ALB,Wood,30in,Alum,1P,Area</t>
+          <t>SLB,Wood,12ft,Steel,1Pos,Street</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1309,7 +1305,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>118.38</v>
       </c>
     </row>
     <row r="33">
@@ -1320,17 +1316,17 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>SLB-W-12-S-1-S</t>
+          <t>CNC-SNB-2</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>SLB,Wood,12ft,Steel,1Pos,Street</t>
+          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1339,11 +1335,11 @@
         </is>
       </c>
       <c r="F33" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>81.16</v>
       </c>
     </row>
     <row r="34">
@@ -1359,7 +1355,7 @@
       </c>
       <c r="C34" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D34" s="9" t="inlineStr">
@@ -1377,28 +1373,28 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>14.76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>CNC-SNB-2</t>
+          <t>SVC-10-QD-ACS-CM</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
+          <t>SVC,1/0,Quad,ACSR,Comm</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1407,11 +1403,11 @@
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>0</v>
+        <v>195.83</v>
       </c>
     </row>
     <row r="36">
@@ -1422,17 +1418,17 @@
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>SVC-10-QD-ACS-CM</t>
+          <t>DEG-10-SNA</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>SVC,1/0,Quad,ACSR,Comm</t>
+          <t>DEG,1/0,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1445,7 +1441,7 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="37">
@@ -1461,7 +1457,7 @@
       </c>
       <c r="C37" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D37" s="12" t="inlineStr">
@@ -1479,28 +1475,26 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="9" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
+      <c r="A38" s="9" t="n">
+        <v>13</v>
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>DEG-10-SNA</t>
+          <t>SLT-70-SR</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>DEG,1/0,Secondary Neutral Al</t>
+          <t>70W 120V Sodium Roadway Refractor</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1513,7 +1507,7 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>0</v>
+        <v>128.82</v>
       </c>
     </row>
     <row r="39">
@@ -1522,7 +1516,7 @@
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>SLT-70-SR</t>
+          <t>SLB-S-8-S-1-S-SC-BK</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
@@ -1532,7 +1526,7 @@
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>70W 120V Sodium Roadway Refractor</t>
+          <t>SLB,Steel,8',Stl,1Pos,Str,SmCel,Black</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1545,26 +1539,28 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>0</v>
+        <v>118.38</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="9" t="n">
-        <v>13</v>
+      <c r="A40" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>SLB-S-8-S-1-S-SC-BK</t>
+          <t>CNC-SNB-2</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>SLB,Steel,8',Stl,1Pos,Str,SmCel,Black</t>
+          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1573,11 +1569,11 @@
         </is>
       </c>
       <c r="F40" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>0</v>
+        <v>40.58</v>
       </c>
     </row>
     <row r="41">
@@ -1593,7 +1589,7 @@
       </c>
       <c r="C41" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D41" s="12" t="inlineStr">
@@ -1611,7 +1607,7 @@
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>0</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="42">
@@ -1622,17 +1618,17 @@
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>CNC-SNB-2</t>
+          <t>CNC-STA-10</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
+          <t>CNC,Sleeve Tension Automatic,#336-#1033</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1641,32 +1637,32 @@
         </is>
       </c>
       <c r="F42" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>0</v>
+        <v>34.51</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>CNC-STA-10</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>CNC,Sleeve Tension Automatic,#336-#1033</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1679,7 +1675,7 @@
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>0</v>
+        <v>195.83</v>
       </c>
     </row>
     <row r="44">
@@ -1690,17 +1686,17 @@
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>DEG-2-PNA</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>DEG,#2,Primary Neutral Al</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1713,7 +1709,7 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="45">
@@ -1724,7 +1720,7 @@
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>DEG-2-PNA</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
@@ -1734,7 +1730,7 @@
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>DEG,#2,Primary Neutral Al</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1747,7 +1743,7 @@
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="46">
@@ -1763,7 +1759,7 @@
       </c>
       <c r="C46" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D46" s="9" t="inlineStr">
@@ -1781,7 +1777,7 @@
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="47">
@@ -1792,17 +1788,17 @@
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
@@ -1815,7 +1811,7 @@
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="48">
@@ -1831,7 +1827,7 @@
       </c>
       <c r="C48" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D48" s="9" t="inlineStr">
@@ -1849,7 +1845,7 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="49">
@@ -1860,17 +1856,17 @@
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>CNC-SNB-2</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
@@ -1879,11 +1875,11 @@
         </is>
       </c>
       <c r="F49" s="13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>0</v>
+        <v>121.74</v>
       </c>
     </row>
     <row r="50">
@@ -1899,7 +1895,7 @@
       </c>
       <c r="C50" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D50" s="9" t="inlineStr">
@@ -1917,51 +1913,17 @@
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>0</v>
+        <v>22.14</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="12" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B51" s="12" t="inlineStr">
-        <is>
-          <t>CNC-SNB-2</t>
-        </is>
-      </c>
-      <c r="C51" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D51" s="12" t="inlineStr">
-        <is>
-          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
-        </is>
-      </c>
-      <c r="E51" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F51" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="G51" s="13" t="inlineStr"/>
-      <c r="H51" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="15" t="inlineStr">
+      <c r="A51" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H52" s="16" t="n">
-        <v>0</v>
+      <c r="H51" s="16" t="n">
+        <v>4633.380000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1974,9 +1936,9 @@
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A52:G52"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A51:G51"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
